--- a/xlsx/贸易壁垒_intext.xlsx
+++ b/xlsx/贸易壁垒_intext.xlsx
@@ -29,7 +29,7 @@
     <t>日本</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_贸易壁垒</t>
+    <t>政策_政策_货币政策_贸易壁垒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E7%AD%96</t>
@@ -41,19 +41,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%8F%E5%89%87</t>
   </si>
   <si>
-    <t>規則</t>
+    <t>规则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E7%A8%85</t>
   </si>
   <si>
-    <t>關稅</t>
+    <t>关税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%9C%E8%B2%BC</t>
   </si>
   <si>
-    <t>補貼</t>
+    <t>补贴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%80%BE%E9%94%80%E7%A8%8E</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E6%A0%BC</t>
   </si>
   <si>
-    <t>價格</t>
+    <t>价格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93%E6%88%B0</t>
   </si>
   <si>
-    <t>貿易戰</t>
+    <t>贸易战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E4%BC%98%E5%8A%BF</t>
@@ -83,25 +83,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>自由貿易</t>
+    <t>自由贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>工業</t>
+    <t>工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
+    <t>农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8B%BC%E9%90%B5</t>
   </si>
   <si>
-    <t>鋼鐵</t>
+    <t>钢铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%BB%E7%B1%B3</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E7%99%BC%E5%B1%95%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>已發展國家</t>
+    <t>已发展国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95%E4%B8%AD%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>發展中國家</t>
+    <t>发展中国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界貿易組織</t>
+    <t>世界贸易组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93%E5%A3%81%E5%A3%98</t>
